--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/C/15/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/C/15/seed5/result_data_RandomForest.xlsx
@@ -603,7 +603,7 @@
         <v>4.54</v>
       </c>
       <c r="C12" t="n">
-        <v>-11.1819</v>
+        <v>-10.9696</v>
       </c>
       <c r="D12" t="n">
         <v>-6.85</v>
@@ -813,7 +813,7 @@
         <v>5.54</v>
       </c>
       <c r="C27" t="n">
-        <v>-12.35179999999999</v>
+        <v>-12.2018</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
@@ -883,7 +883,7 @@
         <v>3.16</v>
       </c>
       <c r="C32" t="n">
-        <v>-12.4164</v>
+        <v>-12.4286</v>
       </c>
       <c r="D32" t="n">
         <v>-8.69</v>
@@ -939,7 +939,7 @@
         <v>9.84</v>
       </c>
       <c r="C36" t="n">
-        <v>-12.1608</v>
+        <v>-11.84240000000001</v>
       </c>
       <c r="D36" t="n">
         <v>-9.050000000000001</v>
@@ -967,7 +967,7 @@
         <v>9.66</v>
       </c>
       <c r="C38" t="n">
-        <v>-12.519</v>
+        <v>-12.332</v>
       </c>
       <c r="D38" t="n">
         <v>-9.09</v>
@@ -1079,7 +1079,7 @@
         <v>4.17</v>
       </c>
       <c r="C46" t="n">
-        <v>-14.53819999999999</v>
+        <v>-14.68509999999999</v>
       </c>
       <c r="D46" t="n">
         <v>-8.09</v>
@@ -1191,7 +1191,7 @@
         <v>6.01</v>
       </c>
       <c r="C54" t="n">
-        <v>-12.8311</v>
+        <v>-12.90980000000001</v>
       </c>
       <c r="D54" t="n">
         <v>-8.01</v>
@@ -1205,7 +1205,7 @@
         <v>5.38</v>
       </c>
       <c r="C55" t="n">
-        <v>-13.33689999999999</v>
+        <v>-13.54269999999999</v>
       </c>
       <c r="D55" t="n">
         <v>-10.06</v>
@@ -1219,7 +1219,7 @@
         <v>4.42</v>
       </c>
       <c r="C56" t="n">
-        <v>-12.80039999999999</v>
+        <v>-12.7806</v>
       </c>
       <c r="D56" t="n">
         <v>-8.92</v>
@@ -1373,7 +1373,7 @@
         <v>5.53</v>
       </c>
       <c r="C67" t="n">
-        <v>-11.9394</v>
+        <v>-12.0081</v>
       </c>
       <c r="D67" t="n">
         <v>-6.43</v>
@@ -1401,7 +1401,7 @@
         <v>4.98</v>
       </c>
       <c r="C69" t="n">
-        <v>-11.63299999999999</v>
+        <v>-11.7908</v>
       </c>
       <c r="D69" t="n">
         <v>-6.88</v>
@@ -1443,7 +1443,7 @@
         <v>6.81</v>
       </c>
       <c r="C72" t="n">
-        <v>-11.7322</v>
+        <v>-11.82480000000001</v>
       </c>
       <c r="D72" t="n">
         <v>-7.37</v>
@@ -1597,7 +1597,7 @@
         <v>5.84</v>
       </c>
       <c r="C83" t="n">
-        <v>-13.55710000000001</v>
+        <v>-13.57</v>
       </c>
       <c r="D83" t="n">
         <v>-7.67</v>
@@ -1639,7 +1639,7 @@
         <v>4.69</v>
       </c>
       <c r="C86" t="n">
-        <v>-14.18709999999999</v>
+        <v>-14.25389999999999</v>
       </c>
       <c r="D86" t="n">
         <v>-8.17</v>
@@ -1709,7 +1709,7 @@
         <v>7.49</v>
       </c>
       <c r="C91" t="n">
-        <v>-12.3449</v>
+        <v>-12.3829</v>
       </c>
       <c r="D91" t="n">
         <v>-8.890000000000001</v>
@@ -1737,7 +1737,7 @@
         <v>4.28</v>
       </c>
       <c r="C93" t="n">
-        <v>-10.4287</v>
+        <v>-10.4811</v>
       </c>
       <c r="D93" t="n">
         <v>-5.79</v>
@@ -1821,7 +1821,7 @@
         <v>5.08</v>
       </c>
       <c r="C99" t="n">
-        <v>-11.9907</v>
+        <v>-11.99930000000001</v>
       </c>
       <c r="D99" t="n">
         <v>-7.59</v>
@@ -1891,7 +1891,7 @@
         <v>7.61</v>
       </c>
       <c r="C104" t="n">
-        <v>-12.57520000000001</v>
+        <v>-12.34420000000001</v>
       </c>
       <c r="D104" t="n">
         <v>-7.34</v>
